--- a/testData/CreateEntity/CreateEntity_ETRS_SuccessUpdate_Test.xlsx
+++ b/testData/CreateEntity/CreateEntity_ETRS_SuccessUpdate_Test.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="646" uniqueCount="178">
   <si>
     <t>WorflowName</t>
   </si>
@@ -452,6 +452,111 @@
   </si>
   <si>
     <t>CT: Wed, Jun 05, 2024 at 5:30 PM</t>
+  </si>
+  <si>
+    <t>9840062204</t>
+  </si>
+  <si>
+    <t>9840091471</t>
+  </si>
+  <si>
+    <t>9840005424</t>
+  </si>
+  <si>
+    <t>9840064575</t>
+  </si>
+  <si>
+    <t>2024-07-16</t>
+  </si>
+  <si>
+    <t>2024-07-19 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>9840057856</t>
+  </si>
+  <si>
+    <t>9840044777</t>
+  </si>
+  <si>
+    <t>9840087097</t>
+  </si>
+  <si>
+    <t>9840038323</t>
+  </si>
+  <si>
+    <t>9840034324</t>
+  </si>
+  <si>
+    <t>9840083161</t>
+  </si>
+  <si>
+    <t>9840019160</t>
+  </si>
+  <si>
+    <t>9840015833</t>
+  </si>
+  <si>
+    <t>2024-07-17</t>
+  </si>
+  <si>
+    <t>02:35:55 AM</t>
+  </si>
+  <si>
+    <t>2024-07-20 05:00:00 PM</t>
+  </si>
+  <si>
+    <t>9840072622</t>
+  </si>
+  <si>
+    <t>9840093356</t>
+  </si>
+  <si>
+    <t>9840045400</t>
+  </si>
+  <si>
+    <t>9840059375</t>
+  </si>
+  <si>
+    <t>9840037132</t>
+  </si>
+  <si>
+    <t>9840010418</t>
+  </si>
+  <si>
+    <t>9840010393</t>
+  </si>
+  <si>
+    <t>9840052955</t>
+  </si>
+  <si>
+    <t>9840027374</t>
+  </si>
+  <si>
+    <t>9840013271</t>
+  </si>
+  <si>
+    <t>9840065901</t>
+  </si>
+  <si>
+    <t>9840011109</t>
+  </si>
+  <si>
+    <t>9840085756</t>
+  </si>
+  <si>
+    <t>9840027608</t>
+  </si>
+  <si>
+    <t>9840093639</t>
+  </si>
+  <si>
+    <t>9840051304</t>
+  </si>
+  <si>
+    <t>2024-07-18</t>
+  </si>
+  <si>
+    <t>2024-07-21 05:00:00 PM</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1167,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>67</v>
@@ -1086,13 +1191,13 @@
         <v>25</v>
       </c>
       <c r="O2" t="s" s="2">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="P2" t="s" s="2">
-        <v>99</v>
+        <v>158</v>
       </c>
       <c r="Q2" t="s" s="2">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="R2" s="2" t="s">
         <v>66</v>
@@ -1131,13 +1236,13 @@
         <v>116</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>122</v>
+        <v>157</v>
       </c>
       <c r="AE2" s="3" t="s">
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1167,7 +1272,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>71</v>
@@ -1179,7 +1284,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>73</v>
@@ -1445,7 +1550,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>88</v>
@@ -1520,7 +1625,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1550,7 +1655,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>90</v>
@@ -1562,7 +1667,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>91</v>
@@ -1825,7 +1930,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>92</v>
@@ -1900,7 +2005,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -1930,7 +2035,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>75</v>
@@ -1942,7 +2047,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>76</v>
@@ -2204,7 +2309,7 @@
         <v>41</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>95</v>
@@ -2279,7 +2384,7 @@
         <v>42</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>40</v>
@@ -2309,7 +2414,7 @@
         <v>58</v>
       </c>
       <c r="AV2" t="s" s="2">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="AW2" s="4" t="s">
         <v>97</v>
@@ -2321,7 +2426,7 @@
         <v>42</v>
       </c>
       <c r="AZ2" t="s" s="2">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="BA2" s="4" t="s">
         <v>98</v>
